--- a/PirmaUzduotis/bug.xlsx
+++ b/PirmaUzduotis/bug.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DELME\SpecFlowUITests1\SpecFlowProject\PirmaUzduotis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{00210101-3326-40AE-8006-D047731010D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50702718-4ADB-443B-8734-8ED7DD2718FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04BEDF5D-9E43-4F10-998F-4EE866BACC7F}"/>
   </bookViews>
@@ -974,9 +974,6 @@
     <hyperlink ref="C14" location="Sheet2!A1" display="Here" xr:uid="{BC981B84-CCC8-4A1E-AC6C-B140D54A16DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 VIEŠO NAUDOJIMO&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -995,15 +992,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 VIEŠO NAUDOJIMO&amp;1#_x000D_</oddHeader>
-  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{f302255e-cf28-4843-9031-c06177cecbc2}" enabled="1" method="Privileged" siteId="{ea88e983-d65a-47b3-adb4-3e1c6d2110d2}" contentBits="3" removed="0"/>
+  <clbl:label id="{190751af-2442-49a7-b7b9-9f0bcce858c9}" enabled="1" method="Privileged" siteId="{ea88e983-d65a-47b3-adb4-3e1c6d2110d2}" contentBits="0" removed="0"/>
 </clbl:labelList>
 </file>